--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/TENNESSEE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/TENNESSEE_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1303"/>
+  <dimension ref="A1:D1297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="25">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C32">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C37">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C72">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C81">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C122">
@@ -1992,7 +1992,7 @@
         <v>11</v>
       </c>
       <c r="D123">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="124">
@@ -2302,7 +2302,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C147">
@@ -2444,13 +2444,13 @@
         <v>11</v>
       </c>
       <c r="D157">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2507,7 +2507,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2618,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="D170">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="171">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C176">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C187">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C189">
@@ -2993,12 +2993,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C199">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C203">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C209">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C216">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C222">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C229">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C238">
@@ -3564,7 +3564,7 @@
         <v>11</v>
       </c>
       <c r="D242">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="243">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C244">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C245">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C247">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C249">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C256">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C263">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C268">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C269">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C270">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C283">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C291">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C301">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C304">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C306">
@@ -4420,14 +4420,14 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C308">
         <v>101</v>
       </c>
       <c r="D308">
-        <v>0.009048557606163771</v>
+        <v>0.009048557606163772</v>
       </c>
     </row>
     <row r="309">
@@ -4446,7 +4446,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C310">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C312">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C317">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C326">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C339">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C344">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,14 +4958,14 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C349">
         <v>11</v>
       </c>
       <c r="D349">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="350">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C355">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C357">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C359">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C362">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C375">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C379">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C384">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C399">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C400">
@@ -5698,13 +5698,13 @@
         <v>11</v>
       </c>
       <c r="D405">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C409">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C412">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C415">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C422">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C426">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C429">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C436">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C440">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C442">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C443">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C444">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C451">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C453">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C457">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C458">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C460">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C462">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C472">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C475">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C479">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C482">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C486">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C490">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C492">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C494">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C497">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C502">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C506">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C516">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C517">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C521">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C524">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C525">
@@ -7463,7 +7463,7 @@
         <v>11</v>
       </c>
       <c r="D540">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="541">
@@ -7495,7 +7495,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C543">
@@ -7521,7 +7521,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C545">
@@ -7736,7 +7736,7 @@
         <v>11</v>
       </c>
       <c r="D561">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="562">
@@ -7775,7 +7775,7 @@
         <v>11</v>
       </c>
       <c r="D564">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="565">
@@ -7905,7 +7905,7 @@
         <v>11</v>
       </c>
       <c r="D574">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="575">
@@ -7983,7 +7983,7 @@
         <v>11</v>
       </c>
       <c r="D580">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="581">
@@ -8197,7 +8197,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C597">
@@ -8488,7 +8488,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C619">
@@ -8579,7 +8579,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C626">
@@ -8631,7 +8631,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C630">
@@ -8683,7 +8683,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C634">
@@ -8696,7 +8696,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C635">
@@ -8831,7 +8831,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C645">
@@ -8844,7 +8844,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C646">
@@ -8896,7 +8896,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C650">
@@ -9200,7 +9200,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C673">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C676">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C679">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C683">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C689">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C692">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C695">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C697">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C704">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C714">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C718">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C733">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C738">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C767">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C769">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C778">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C811">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C847">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C857">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C859">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C861">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C866">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C868">
@@ -11836,7 +11836,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C875">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C886">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C887">
@@ -12057,7 +12057,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C892">
@@ -12083,7 +12083,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C894">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C896">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C900">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C901">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C905">
@@ -12330,7 +12330,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C913">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C916">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C919">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C925">
@@ -12499,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C926">
@@ -12538,7 +12538,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C929">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C931">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C935">
@@ -12733,7 +12733,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C944">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C953">
@@ -12875,13 +12875,13 @@
         <v>11</v>
       </c>
       <c r="D954">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C955">
@@ -12946,7 +12946,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C960">
@@ -12959,7 +12959,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C961">
@@ -12998,14 +12998,14 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C964">
         <v>11</v>
       </c>
       <c r="D964">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="965">
@@ -13037,7 +13037,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C967">
@@ -13127,7 +13127,7 @@
         <v>11</v>
       </c>
       <c r="D973">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="974">
@@ -13190,7 +13190,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C978">
@@ -13203,7 +13203,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C979">
@@ -13268,7 +13268,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C984">
@@ -13294,7 +13294,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C986">
@@ -13398,7 +13398,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C994">
@@ -13457,13 +13457,13 @@
         <v>11</v>
       </c>
       <c r="D998">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C999">
@@ -13541,7 +13541,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1005">
@@ -13567,7 +13567,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1007">
@@ -13645,7 +13645,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13697,7 +13697,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1017">
@@ -13710,7 +13710,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1018">
@@ -13723,7 +13723,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1019">
@@ -13736,7 +13736,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1020">
@@ -13749,7 +13749,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1021">
@@ -13762,7 +13762,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1022">
@@ -14265,7 +14265,7 @@
         <v>11</v>
       </c>
       <c r="D1059">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="1060">
@@ -14336,7 +14336,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1065">
@@ -14718,7 +14718,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1094">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1101">
@@ -14866,7 +14866,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1105">
@@ -14892,7 +14892,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1107">
@@ -15040,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1118">
@@ -15079,7 +15079,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1121">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1127">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1129">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1132">
@@ -15235,7 +15235,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1133">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1147">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1148">
@@ -15567,7 +15567,7 @@
         <v>11</v>
       </c>
       <c r="D1158">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="1159">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1163">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1164">
@@ -15658,7 +15658,7 @@
         <v>11</v>
       </c>
       <c r="D1165">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="1166">
@@ -15677,7 +15677,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1167">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1168">
@@ -15703,7 +15703,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1169">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1170">
@@ -15833,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1179">
@@ -15898,7 +15898,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1184">
@@ -15924,7 +15924,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1186">
@@ -15970,7 +15970,7 @@
         <v>11</v>
       </c>
       <c r="D1189">
-        <v>0.0009854864719584303</v>
+        <v>0.0009854864719584305</v>
       </c>
     </row>
     <row r="1190">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1191">
@@ -16093,7 +16093,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1199">
@@ -16106,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1200">
@@ -16158,7 +16158,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1204">
@@ -16249,7 +16249,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1211">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1213">
@@ -16652,7 +16652,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1242">
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1258">
@@ -16896,7 +16896,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1260">
@@ -16909,7 +16909,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1261">
@@ -17026,7 +17026,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1270">
@@ -17078,7 +17078,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1274">
@@ -17130,7 +17130,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1278">
@@ -17143,7 +17143,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1279">
@@ -17247,7 +17247,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1287">
@@ -17260,7 +17260,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1288">
@@ -17273,7 +17273,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1289">
@@ -17299,7 +17299,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1291">
@@ -17385,41 +17385,6 @@
       </c>
       <c r="D1297">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
